--- a/格式代码保留/日语原文/Weapons.xlsx
+++ b/格式代码保留/日语原文/Weapons.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AiNiee-Test-Dataset\格式代码保留\日语原文\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBF70C9-1782-48D2-A296-2C0FB36554C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Original Text</t>
   </si>
@@ -33,16 +51,10 @@
   </si>
   <si>
     <t>人参</t>
-  </si>
-  <si>
-    <t>胡萝卜</t>
   </si>
   <si>
     <t>我慢が5％上昇するが
 すばやさが5％低下する。</t>
-  </si>
-  <si>
-    <t>忍耐力提升5%，但敏捷降低5%。</t>
   </si>
   <si>
     <t>ショッピングモール2F　★
@@ -54,26 +66,11 @@
 すばやさが\c[20]5\c[0]％低下する。&gt;</t>
   </si>
   <si>
-    <t>购物中心2F  ★
-&lt;plus:\C[22]忍耐+5%\C[0]&gt;
-&lt;minus:\C[20]敏捷-5%\C[0]&gt;
-&lt;ill:胡萝卜&gt;
-&lt;br:\I[420]胡萝卜
-忍耐力提升\C[20]5%\C[0]，
-但敏捷降低\C[20]5%\C[0]。&gt;</t>
-  </si>
-  <si>
     <t>じゃがいも</t>
-  </si>
-  <si>
-    <t>土豆</t>
   </si>
   <si>
     <t>最大体力が5％上昇するが
 テクニックが5％低下する。</t>
-  </si>
-  <si>
-    <t>最大体力提升5%，但技巧降低5%。</t>
   </si>
   <si>
     <t>ショッピングモール2F　★
@@ -85,26 +82,11 @@
 テクニックが\c[20]5\c[0]％低下する。&gt;</t>
   </si>
   <si>
-    <t>购物中心2F  ★
-&lt;plus:\C[22]最大体力+5%\C[0]&gt;
-&lt;minus:\C[20]技巧-5%\C[0]&gt;
-&lt;ill:土豆&gt;
-&lt;br:\I[421]土豆
-最大体力提升\C[20]5%\C[0]，
-但技巧降低\C[20]5%\C[0]。&gt;</t>
-  </si>
-  <si>
     <t>まんまるたこ焼き</t>
-  </si>
-  <si>
-    <t>圆滚滚章鱼烧</t>
   </si>
   <si>
     <t>最大理性が5％上昇するが
 我慢が5％低下する。</t>
-  </si>
-  <si>
-    <t>最大理性提升5%，但忍耐力降低5%。</t>
   </si>
   <si>
     <t>★
@@ -116,26 +98,10 @@
 我慢が\c[20]5\c[0]％低下する。&gt;</t>
   </si>
   <si>
-    <t>★
-&lt;plus:\C[22]最大理性+5%\C[0]&gt;
-&lt;minus:\C[20]忍耐-5%\C[0]&gt;
-&lt;ill:章鱼烧&gt;
-&lt;br:\I[363]圆滚滚的章鱼烧
-最大智力提升\C[20]5%\C[0]，
-但忍耐力降低\C[20]5%\C[0]。&gt;</t>
-  </si>
-  <si>
     <t>バイブ</t>
   </si>
   <si>
-    <t>振动器</t>
-  </si>
-  <si>
     <t xml:space="preserve">最大体力が5％上昇する。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大体力提升5%。
 </t>
   </si>
   <si>
@@ -147,24 +113,10 @@
 最大体力が\c[20]5\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>理科室★
-&lt;plus:\C[22]最大体力+5%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:高速振动器&gt;
-&lt;br:\I[425]振动器
-最大体力提升\c[20]5%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>エネマグラ</t>
   </si>
   <si>
-    <t>灌肠器</t>
-  </si>
-  <si>
     <t>我慢が5％上昇する</t>
-  </si>
-  <si>
-    <t>忍耐力提升5%</t>
   </si>
   <si>
     <t>女子トイレ　エロタワー5、6F★
@@ -175,24 +127,10 @@
 我慢が\c[20]5\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>女子厕所色情塔5、6F★
-&lt;plus:\C[22]忍耐+5%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:灌肠器&gt;
-&lt;br:\I[399]灌肠器
-忍耐力提升\c[20]5%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>黄金のアナルバイブ</t>
   </si>
   <si>
-    <t>黄金肛门振动器</t>
-  </si>
-  <si>
     <t>テクニックが20%上昇する。</t>
-  </si>
-  <si>
-    <t>技巧提升20%。</t>
   </si>
   <si>
     <t>カガミ　★★★★
@@ -203,26 +141,11 @@
 テクニックが\c[20]20\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>镜  ★★★★
-&lt;plus:\C[22]技巧+20%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:黄金肛门振动器&gt;
-&lt;br:\I[336]黄金肛门振动器
-技巧提升\C[20]20%\C[0]。&gt;</t>
-  </si>
-  <si>
     <t>恍惚座薬</t>
-  </si>
-  <si>
-    <t>恍惚栓剂</t>
   </si>
   <si>
     <t>我慢が5％下がるが、
 恍惚状態の影響を20％下げる</t>
-  </si>
-  <si>
-    <t>忍耐降低5%，但
-恍惚状态的影响降低20%</t>
   </si>
   <si>
     <t>北の地下室2F　★★
@@ -234,27 +157,11 @@
 恍惚状態の影響を\c[20]20\c[0]％下げる&gt;</t>
   </si>
   <si>
-    <t>北地下室2F  ★★
-&lt;plus:\C[22]恍惚-20%\C[0]&gt;
-&lt;minus:\C[20]忍耐-5%\C[0]&gt;
-&lt;ill:栓剂&gt;
-&lt;br:\I[367]理性栓剂
-忍耐降低\C[20]5%\C[0]，
-恍惚状态的影响降低\C[20]20%\C[0]&gt;</t>
-  </si>
-  <si>
     <t>揚げパン</t>
-  </si>
-  <si>
-    <t>炸面包</t>
   </si>
   <si>
     <t>テクニックが5％上昇するが
 我慢が5％低下する。</t>
-  </si>
-  <si>
-    <t>技巧提升5%，但
-忍耐降低5%。</t>
   </si>
   <si>
     <t>　★
@@ -266,26 +173,11 @@
 我慢が\c[20]5\c[0]％低下する。&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  ★
-&lt;plus:\C[22]技巧+5%\C[0]&gt;
-&lt;minus:\C[20]忍耐-5%\C[0]&gt;
-&lt;ill:炸面包&gt;
-&lt;br:\I[366]炸面包
-技巧提升\C[20]5%\C[0]，
-但忍耐下降\C[20]5%\C[0]。&gt;</t>
-  </si>
-  <si>
     <t>大きなたこ焼き</t>
-  </si>
-  <si>
-    <t>大章鱼烧</t>
   </si>
   <si>
     <t>回復効果率が15上昇するが
 最大理性が5％低下する。</t>
-  </si>
-  <si>
-    <t>恢复效果率提升15，但最大理性下降5%。</t>
   </si>
   <si>
     <t>★★★
@@ -297,26 +189,11 @@
 最大理性が\c[20]5\c[0]％低下する。&gt;</t>
   </si>
   <si>
-    <t>★★★
-&lt;plus:\C[22]恢复效果率+10%\C[0]&gt;
-&lt;minus:\C[20]最大理性-5%\C[0]&gt;
-&lt;ill:章鱼烧&gt;
-&lt;br:\I[363]大章鱼烧
-恢复效果率提升\C[20]10%\C[0]，
-但最大理性下降\C[20]5%\C[0]。&gt;</t>
-  </si>
-  <si>
     <t>うなぎ</t>
-  </si>
-  <si>
-    <t>鳗鱼</t>
   </si>
   <si>
     <t>テクニックが15％上昇するが
 我慢が5％低下する。</t>
-  </si>
-  <si>
-    <t>技巧提升15%，但忍耐下降5%。</t>
   </si>
   <si>
     <t>★★★
@@ -328,26 +205,10 @@
 我慢が\c[20]5\c[0]％低下する。&gt;</t>
   </si>
   <si>
-    <t>★★★
-&lt;plus:\C[22]技巧+15%\C[0]&gt;
-&lt;minus:\C[20]忍耐-5%\C[0]&gt;
-&lt;ill:滋补鳗鱼&gt;
-&lt;br:\I[422]鳗鱼
-技巧提升\C[20]15%\C[0]，
-但忍耐下降\C[20]5%\C[0]。&gt;</t>
-  </si>
-  <si>
     <t>黄金のバイブ</t>
   </si>
   <si>
-    <t>黄金振动器</t>
-  </si>
-  <si>
     <t xml:space="preserve">最大体力が20％上昇する。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大体力提升20%。
 </t>
   </si>
   <si>
@@ -360,26 +221,10 @@
 最大体力が\c[20]20\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>镜★★★★
-拉泽尔总部3F
-&lt;plus:\C[22]最大体力+20%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:黄金肛门振动器&gt;
-&lt;br:\I[336]黄金振动器
-最大体力提升\c[20]20%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>ローター</t>
   </si>
   <si>
-    <t>转子</t>
-  </si>
-  <si>
     <t xml:space="preserve">最大理性が5％上昇する。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大理性提升5%。
 </t>
   </si>
   <si>
@@ -391,25 +236,10 @@
 最大理性が\c[20]5\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>北地铁1F★
-&lt;plus:\C[22]最大理性+5%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:672&gt;
-&lt;br:\I[672]转子
-最大理性提升\c[20]5%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>黄金のローター</t>
   </si>
   <si>
-    <t>黄金转子</t>
-  </si>
-  <si>
     <t xml:space="preserve">最大理性が20％上昇する。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大理性提升20%。
 </t>
   </si>
   <si>
@@ -422,25 +252,10 @@
 最大理性が\c[20]20\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>镜★★★★
-拉泽尔总部3F
-&lt;plus:\C[22]最大理性+20%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:673&gt;
-&lt;br:\I[673]黄金转子
-最大理性提升\c[20]20%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>アナルバイブ</t>
   </si>
   <si>
-    <t>肛门振动器</t>
-  </si>
-  <si>
     <t>テクニックが5%上昇する。</t>
-  </si>
-  <si>
-    <t>技巧提升5%。</t>
   </si>
   <si>
     <t>音楽室　エロタワー5、6F★★★★
@@ -451,24 +266,10 @@
 テクニックが\c[20]5\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>音乐室色情塔5、6F★★★★
-&lt;plus:\C[22]技巧+5%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:高速振动器&gt;
-&lt;br:\I[425]肛门振动器
-技巧提升\c[20]5%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>黄金のエネマグラ</t>
   </si>
   <si>
-    <t>黄金灌肠器</t>
-  </si>
-  <si>
     <t>我慢が20％上昇する</t>
-  </si>
-  <si>
-    <t>忍耐提升20%</t>
   </si>
   <si>
     <t>カガミ、月天街★★★★
@@ -479,25 +280,10 @@
 我慢が\c[20]20\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>镜、月天街★★★★
-&lt;plus:\C[22]忍耐+20%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:671&gt;
-&lt;br:\I[671]黄金灌肠器
-忍耐提升\c[20]20%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>品質のいいバイブ</t>
   </si>
   <si>
-    <t>高品质振动器</t>
-  </si>
-  <si>
     <t xml:space="preserve">最大体力が10％上昇する。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大体力提升10%。
 </t>
   </si>
   <si>
@@ -509,26 +295,11 @@
 最大体力が\c[20]10\c[0]％上昇する。&gt;</t>
   </si>
   <si>
-    <t>购物中心1F★★
-&lt;plus:\C[22]最大体力+10%\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:高速振动器&gt;
-&lt;br:\I[425]高品质振动器
-最大体力提升\c[20]10%\c[0]。&gt;</t>
-  </si>
-  <si>
     <t>避混乱プラグ</t>
-  </si>
-  <si>
-    <t>防混乱插头</t>
   </si>
   <si>
     <t>我慢が10％低下するが、
 混乱状態にならなくなる。</t>
-  </si>
-  <si>
-    <t>忍耐降低10%，但
-不会陷入混乱状态。</t>
   </si>
   <si>
     <t>エロタワー4F　5F★★
@@ -540,25 +311,10 @@
 混乱状態にならなくなる。&gt;</t>
   </si>
   <si>
-    <t>色情塔4F5F★★
-&lt;plus:\C[22]混乱无效化\C[0]&gt;
-&lt;minus:\C[20]忍耐-10%\C[0]&gt;
-&lt;ill:676&gt;
-&lt;br:\I[676]避混乱插件
-忍耐会减少\c[20]10%\c[0]，但
-不会陷入混乱状态。&gt;</t>
-  </si>
-  <si>
     <t>黄金の避混乱プラグ</t>
   </si>
   <si>
-    <t>黄金避混乱插件</t>
-  </si>
-  <si>
     <t>混乱状態にならなくなる。</t>
-  </si>
-  <si>
-    <t>不会陷入混乱状态。</t>
   </si>
   <si>
     <t>カガミ　★★★★
@@ -569,26 +325,11 @@
 混乱状態にならなくなる。&gt;</t>
   </si>
   <si>
-    <t>镜★★★★
-&lt;plus:\C[22]混乱无效化\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:677&gt;
-&lt;br:\I[677]黄金避混乱插件
-不会陷入混乱状态。&gt;</t>
-  </si>
-  <si>
     <t>避麻痺プラグ</t>
-  </si>
-  <si>
-    <t>避麻痹插件</t>
   </si>
   <si>
     <t>我慢が10％低下するが、
 麻痺状態にならなくなる。</t>
-  </si>
-  <si>
-    <t>忍耐会下降10%，但
-不会陷入麻痹状态。</t>
   </si>
   <si>
     <t>カラオケ姦　2F　ラゼル本部4F★★
@@ -600,25 +341,10 @@
 麻痺状態にならなくなる。&gt;</t>
   </si>
   <si>
-    <t>卡拉OK奸  2F  拉泽尔总部4F★★
-&lt;plus:\C[22]麻痹无效化\C[0]&gt;
-&lt;minus:\C[20]忍耐-10%\C[0]&gt;
-&lt;ill:678&gt;
-&lt;br:\I[678]避麻痹插头
-忍耐会减少\C[20]10%\C[0]，
-但不会陷入麻痹状态。&gt;</t>
-  </si>
-  <si>
     <t>黄金の避麻痺プラグ</t>
   </si>
   <si>
-    <t>黄金避麻痹插头</t>
-  </si>
-  <si>
     <t>麻痺状態にならなくなる。</t>
-  </si>
-  <si>
-    <t>不会陷入麻痹状态。</t>
   </si>
   <si>
     <t>カガミ　★★★★
@@ -629,25 +355,11 @@
 麻痺状態にならなくなる。&gt;</t>
   </si>
   <si>
-    <t>镜★★★★
-&lt;plus:\C[22]麻痹无效化\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:679&gt;
-&lt;br:\I[679]黄金避麻痹插头
-不会陷入麻痹状态。&gt;</t>
-  </si>
-  <si>
     <t>避恍惚ビーズ</t>
-  </si>
-  <si>
-    <t>避恍惚珠</t>
   </si>
   <si>
     <t>我慢が10％低下するが、
 恍惚状態にならなくなる。</t>
-  </si>
-  <si>
-    <t>忍耐会下降10%，但不会陷入恍惚状态。</t>
   </si>
   <si>
     <t>娯楽街　★★
@@ -659,25 +371,10 @@
 恍惚状態にならなくなる。&gt;</t>
   </si>
   <si>
-    <t>娱乐街  ★★
-&lt;plus:\C[22]恍惚无效化\C[0]&gt;
-&lt;minus:\C[20]忍耐-10%\C[0]&gt;
-&lt;ill:674&gt;
-&lt;br:\I[674]避恍惚珠
-忍耐减少\C[20]10%\C20]，
-但不会陷入恍惚状态。&gt;</t>
-  </si>
-  <si>
     <t>黄金の避恍惚ビーズ</t>
   </si>
   <si>
-    <t>黄金避恍惚珠</t>
-  </si>
-  <si>
     <t>恍惚状態にならなくなる。</t>
-  </si>
-  <si>
-    <t>不会陷入恍惚状态。</t>
   </si>
   <si>
     <t>カガミ　★★★★
@@ -686,30 +383,23 @@
 &lt;ill:675&gt;
 &lt;br:\I[675]黄金の避恍惚ビーズ
 恍惚状態にならなくなる。&gt;</t>
-  </si>
-  <si>
-    <t>镜★★★★
-&lt;plus:\C[22]恍惚无效化\C[0]&gt;
-&lt;minus:\C[20]-\C[0]&gt;
-&lt;ill:675&gt;
-&lt;br:\I[675]黄金避恍惚珠
-不会陷入恍惚状态。&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -733,13 +423,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1029,19 +727,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="186.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,537 +756,338 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>